--- a/104/104.xlsx
+++ b/104/104.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>No.</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>session 14</t>
+  </si>
+  <si>
+    <t>session 15</t>
   </si>
 </sst>
 </file>
@@ -154,10 +160,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,7 +447,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,12 +467,14 @@
         <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -491,7 +499,10 @@
       <c r="D2" s="3">
         <v>9</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3">
+        <f>(9/9)*10</f>
+        <v>10</v>
+      </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -516,7 +527,10 @@
       <c r="D3" s="3">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <f>(9/9)*10</f>
+        <v>10</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -541,7 +555,9 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -566,7 +582,10 @@
       <c r="D5" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3">
+        <f>(5/9)*10</f>
+        <v>5.5555555555555554</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -591,7 +610,9 @@
       <c r="D6" s="1">
         <v>9</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -616,7 +637,9 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -682,15 +705,15 @@
         <v>1</v>
       </c>
       <c r="B11" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -717,12 +740,12 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f>B2+C2+D2</f>
-        <v>30</v>
+        <f>B2+C2+D2+E2</f>
+        <v>40</v>
       </c>
       <c r="C14" s="6">
         <f>(B14*40)/B11</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="5">
         <v>10</v>
@@ -731,8 +754,8 @@
         <v>0</v>
       </c>
       <c r="F14" s="11">
-        <f>C14+D14+E14</f>
-        <v>40</v>
+        <f t="shared" ref="F14:F19" si="0">C14+D14+E14</f>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -740,12 +763,12 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f>B3+C3+D3</f>
-        <v>23</v>
+        <f>B3+C3+D3+E3</f>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
         <f>(B15*40)/B11</f>
-        <v>23</v>
+        <v>26.4</v>
       </c>
       <c r="D15" s="5">
         <v>9</v>
@@ -754,8 +777,8 @@
         <v>0</v>
       </c>
       <c r="F15" s="11">
-        <f>C15+D15+E15</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>35.4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -763,12 +786,12 @@
         <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f>B4+C4+D4</f>
+        <f>B4+C4+D4+E4</f>
         <v>9</v>
       </c>
       <c r="C16" s="6">
         <f>(B16*40)/B11</f>
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
@@ -777,8 +800,8 @@
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <f>C16+D16+E16</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7.2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -786,22 +809,22 @@
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f>B5+C5+D5</f>
-        <v>18</v>
+        <f>B5+C5+D5+E5</f>
+        <v>23.555555555555557</v>
       </c>
       <c r="C17" s="6">
         <f>(B17*40)/B11</f>
-        <v>18</v>
+        <v>18.844444444444445</v>
       </c>
       <c r="D17" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
       </c>
       <c r="F17" s="11">
-        <f>C17+D17+E17</f>
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>27.844444444444445</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -809,22 +832,22 @@
         <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f>B6+C6+D6</f>
+        <f>B6+C6+D6+E6</f>
         <v>9</v>
       </c>
       <c r="C18" s="6">
         <f>(B18*40)/B11</f>
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="D18" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
       </c>
       <c r="F18" s="11">
-        <f>C18+D18+E18</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>15.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f>B7+C7+D7</f>
+        <f>B7+C7+D7+E7</f>
         <v>0</v>
       </c>
       <c r="C19" s="6">
@@ -846,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <f>C19+D19+E19</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -856,7 +879,7 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>9</v>
       </c>
     </row>

--- a/104/104.xlsx
+++ b/104/104.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="web 103" sheetId="1" r:id="rId1"/>
+    <sheet name="web 104" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -447,7 +447,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="10">
-        <f>B2+C2+D2+E2</f>
+        <f t="shared" ref="B14:B19" si="0">B2+C2+D2+E2</f>
         <v>40</v>
       </c>
       <c r="C14" s="6">
@@ -751,11 +751,11 @@
         <v>10</v>
       </c>
       <c r="E14" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" ref="F14:F19" si="0">C14+D14+E14</f>
-        <v>42</v>
+        <f t="shared" ref="F14:F19" si="1">C14+D14+E14</f>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="10">
-        <f>B3+C3+D3+E3</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C15" s="6">
@@ -774,11 +774,11 @@
         <v>9</v>
       </c>
       <c r="E15" s="5">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F15" s="11">
-        <f t="shared" si="0"/>
-        <v>35.4</v>
+        <f t="shared" si="1"/>
+        <v>102.4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="10">
-        <f>B4+C4+D4+E4</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C16" s="6">
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="10">
-        <f>B5+C5+D5+E5</f>
+        <f t="shared" si="0"/>
         <v>23.555555555555557</v>
       </c>
       <c r="C17" s="6">
@@ -820,11 +820,11 @@
         <v>9</v>
       </c>
       <c r="E17" s="5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F17" s="11">
-        <f t="shared" si="0"/>
-        <v>27.844444444444445</v>
+        <f t="shared" si="1"/>
+        <v>82.844444444444449</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="10">
-        <f>B6+C6+D6+E6</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="6">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="10">
-        <f>B7+C7+D7+E7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C19" s="6">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>

--- a/104/104.xlsx
+++ b/104/104.xlsx
@@ -447,7 +447,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,11 +866,11 @@
         <v>5</v>
       </c>
       <c r="E19" s="5">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
